--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tickers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sectors" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8958,4 +8959,167 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>basic-materials</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ESSA, INRU, CITA, INCO, AKPI, INAI, WTON, ALMI, ISSP, YPAS, PBID, SPMA, BAJA, PSAB, BTON, IPOL, INCF, SQMI, SMGR, MDKA, ANTM, IGAR, INTP, EKAD, LTLS, SMCB, TKIM, INTD, INKP, BRMS, CLPI, FPNI, DPNS, BRPT, TBMS, MOLI, TPIA, UNIC, TINS, KDSI, ALDO, KRAS, DKFT, MDKI, NIKL, AGII, GDST, ADMG, ALKA, APLI, SMBR, KMTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>consumer-cyclical</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BOGA, MAPI, ACES, MARI, PJAA, GJTL, MNCN, DFAM, MSKY, ESTI, TRIS, MAPB, MASA, JIHD, LPPF, FILM, PZZA, PSKT, ERAA, YELO, PANR, ERTX, INDS, INDR, ECII, MICE, HRTA, SMSM, PGLI, MPMX, FORU, ARTA, AUTO, LPIN, GDYR, SCMA, KPIG, KICI, BRAM, WOOD, RICY, PRAS, ABBA, FAST, IMAS, TMPO, RALS, SOTS, CINT, LMPI, MAPA, PDES, CSAP, ZONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>consumer-non-cyclicals</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BUDI, HOKI, SMAR, BISI, SSMS, CAMP, MPPA, AISA, MGRO, HERO, ANJT, INDF, TBLA, GZCO, LSIP, ROTI, JAWA, TCID, SDPC, KINO, SIPD, STTP, WAPO, PCAR, MBTO, MYOR, TGKA, DLTA, MIDI, BWPT, GOOD, UNVR, CEKA, AMRT, ADES, CPRO, MRAT, HMSP, CPIN, PSDN, DSFI, ULTJ, DAYA, RANC, ALTO, JPFA, MLBI, ICBP, WIIM, CLEO, GGRM, MAIN, EPMT, DSNG, SGRO, SKBM, SIMP</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BSSR, TCPI, KKGI, RIGS, AIMS, TPMA, MITI, WINS, RUIS, MYOH, ITMA, RAJA, LEAD, PTRO, ITMG, MBAP, INDY, APEX, ARII, MBSS, FIRE, KOPI, SHIP, BUMI, AKRA, ADRO, DOID, BYAN, ENRG, BULL, PGAS, GEMS, DWGL, SOCI, ELSA, BIPI, TOBA, DEWA, PTBA, PSSI, HRUM, MEDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>financials</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>VINS, ASJT, DNAR, BBNI, BFIN, BVIC, BSIM, VICO, TUGU, YULE, BACA, GSMF, DNET, BBTN, ARTO, SRTG, BBYB, APIC, MAYA, LPPS, MEGA, MFIN, BBLD, BJTM, ADMF, BKSW, BBRI, LPGI, BBCA, ASBI, BMRI, BNII, BBKP, CASA, BPII, MREI, BRIS, PNBS, MCOR, INPC, BNLI, NICK, PNLF, AGRS, PANS, BNGA, TRUS, AGRO, PNBN, BGTG, JMAS, BPFI, NISP, BBHI, BABP, BJBR, PNIN, BTPS, IMJS, AMAG, CFIN, BNBA, HDFA, BMAS, AHAP, NOBU, VRNA, TRIM, SMMA, MTWI, BDMN, BTPN, POLA, SDRA, STAR, BBMD, WOMF, ASMI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>healthcare</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MERK, SAME, TSPC, SIDO, PRIM, KAEF, HEAL, PYFA, DVLA, MIKA, KLBF, INAF, PEHA, PRDA, SILO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>industrials</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ZBRA, MFMI, TOTO, APII, SCCO, ASGR, VOKS, SKRN, ICON, LION, SOSS, KBLM, SPTO, ASII, IKBI, CAKK, BMTR, ABMM, AMIN, JTPE, BHIT, KOIN, ARNA, UNTR, MLIA, KBLI, AMFG, IMPC, MLPL, DYAN, MARK, KOBX, HEXA, INDX</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>infrastructures</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PTPP, JSMR, TBIG, CENT, BALI, MPOW, WSKT, ISAT, FREN, BUKK, PORT, PPRE, LINK, NRCA, IPCM, CMNP, ACST, EXCL, TLKM, PBSA, SSIA, WEGE, IDPR, CASS, WIKA, GHON, GOLD, ADHI, META, DGIK, JKON, TOWR, POWR, TOTL, IPCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>properties-real-estate</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BAPA, PWON, RDTX, SMDM, GPRA, MTSM, LPKR, PUDP, DMAS, DILD, SMRA, DUTI, CITY, DART, MMLP, BCIP, JRPT, SATU, CTRA, PLIN, CSIS, ASRI, RODA, EMDE, LPLI, BSDE, FMII, BEST, GWSA, NIRO, APLN, MTLA, MDLN, LPCK, RISE, KIJA, URBN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATIC, MTDL, MLPT, LUCK, MCAS, NFCX, EMTK, KIOS, PTSN, DIVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>transaportation-logistic</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LRNA, ASSA, SMDR, WEHA, SAPX, NELY, HELI, BIRD, AKSI, TRUK, TNCA</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>